--- a/CDSImagingPilotProtocol_TimingsBlock3.xlsx
+++ b/CDSImagingPilotProtocol_TimingsBlock3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cchmc-my.sharepoint.com/personal/nicholas_dunn_cchmc_org/Documents/Documents/06 - Neuroimaging Study/SART/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_714D2B67887E9C4C718CD3E7F9012D16618A10DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF9963F-F1B8-4A33-89AC-1773EC1E044B}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_714D2B67887E9C4C718CD3E7F9012D16618A10DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D28C12-85E3-4EAA-936D-0519071D2357}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="855" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="110">
   <si>
     <t>Non-target</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>right</t>
-  </si>
-  <si>
-    <t>space</t>
   </si>
   <si>
     <t/>
@@ -724,7 +721,7 @@
   <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,7 +753,7 @@
         <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -776,7 +773,7 @@
         <v>1800</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -796,7 +793,7 @@
         <v>1800</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -816,7 +813,7 @@
         <v>1800</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -836,7 +833,7 @@
         <v>1800</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -856,7 +853,7 @@
         <v>1800</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -876,7 +873,7 @@
         <v>1800</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -896,7 +893,7 @@
         <v>1800</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -916,7 +913,7 @@
         <v>1800</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -936,7 +933,7 @@
         <v>1800</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -956,7 +953,7 @@
         <v>1800</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -976,7 +973,7 @@
         <v>1800</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -996,7 +993,7 @@
         <v>1800</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1016,7 +1013,7 @@
         <v>1800</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1036,7 +1033,7 @@
         <v>1800</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1056,7 +1053,7 @@
         <v>1800</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1076,7 +1073,7 @@
         <v>1800</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1096,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1104,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19">
         <v>46000</v>
@@ -1136,7 +1133,7 @@
         <v>1800</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1156,7 +1153,7 @@
         <v>1800</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1176,7 +1173,7 @@
         <v>1800</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1196,7 +1193,7 @@
         <v>1800</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1216,7 +1213,7 @@
         <v>1800</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1236,7 +1233,7 @@
         <v>1800</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1256,7 +1253,7 @@
         <v>1800</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1276,7 +1273,7 @@
         <v>1800</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1296,7 +1293,7 @@
         <v>1800</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1316,7 +1313,7 @@
         <v>1800</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1336,7 +1333,7 @@
         <v>1800</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1356,7 +1353,7 @@
         <v>1800</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1376,10 +1373,10 @@
         <v>1800</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1399,7 +1396,7 @@
         <v>1800</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1419,7 +1416,7 @@
         <v>1800</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1439,7 +1436,7 @@
         <v>1800</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1459,7 +1456,7 @@
         <v>1800</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1479,7 +1476,7 @@
         <v>1800</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1499,7 +1496,7 @@
         <v>1800</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1519,7 +1516,7 @@
         <v>1800</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1539,7 +1536,7 @@
         <v>1800</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1559,7 +1556,7 @@
         <v>1800</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1579,7 +1576,7 @@
         <v>1800</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1599,7 +1596,7 @@
         <v>1800</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1619,7 +1616,7 @@
         <v>1800</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1639,7 +1636,7 @@
         <v>1800</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1659,7 +1656,7 @@
         <v>1800</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1679,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1687,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48">
         <v>125500</v>
@@ -1719,7 +1716,7 @@
         <v>1800</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1739,7 +1736,7 @@
         <v>1800</v>
       </c>
       <c r="F50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1759,7 +1756,7 @@
         <v>1800</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1779,7 +1776,7 @@
         <v>1800</v>
       </c>
       <c r="F52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1799,7 +1796,7 @@
         <v>1800</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1819,7 +1816,7 @@
         <v>1800</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1839,7 +1836,7 @@
         <v>1800</v>
       </c>
       <c r="F55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1859,7 +1856,7 @@
         <v>1800</v>
       </c>
       <c r="F56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1879,7 +1876,7 @@
         <v>1800</v>
       </c>
       <c r="F57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1899,7 +1896,7 @@
         <v>1800</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1919,7 +1916,7 @@
         <v>1800</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1939,7 +1936,7 @@
         <v>1800</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1959,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1967,7 +1964,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62">
         <v>167500</v>
@@ -1999,7 +1996,7 @@
         <v>1800</v>
       </c>
       <c r="F63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2019,7 +2016,7 @@
         <v>1800</v>
       </c>
       <c r="F64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2039,7 +2036,7 @@
         <v>1800</v>
       </c>
       <c r="F65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2059,7 +2056,7 @@
         <v>1800</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2079,7 +2076,7 @@
         <v>1800</v>
       </c>
       <c r="F67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2099,7 +2096,7 @@
         <v>1800</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2119,7 +2116,7 @@
         <v>1800</v>
       </c>
       <c r="F69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2139,10 +2136,10 @@
         <v>1800</v>
       </c>
       <c r="F70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2162,7 +2159,7 @@
         <v>1800</v>
       </c>
       <c r="F71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2182,7 +2179,7 @@
         <v>1800</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2202,7 +2199,7 @@
         <v>1800</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2222,7 +2219,7 @@
         <v>1800</v>
       </c>
       <c r="F74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2242,7 +2239,7 @@
         <v>1800</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2262,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2270,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77">
         <v>212000</v>
@@ -2302,7 +2299,7 @@
         <v>1800</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2322,7 +2319,7 @@
         <v>1800</v>
       </c>
       <c r="F79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2342,7 +2339,7 @@
         <v>1800</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2362,7 +2359,7 @@
         <v>1800</v>
       </c>
       <c r="F81" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2382,7 +2379,7 @@
         <v>1800</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2402,7 +2399,7 @@
         <v>1800</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2422,7 +2419,7 @@
         <v>1800</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2442,7 +2439,7 @@
         <v>1800</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2462,7 +2459,7 @@
         <v>1800</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2482,7 +2479,7 @@
         <v>1800</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2502,7 +2499,7 @@
         <v>1800</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2522,7 +2519,7 @@
         <v>1800</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2542,7 +2539,7 @@
         <v>1800</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2562,10 +2559,10 @@
         <v>1800</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2585,7 +2582,7 @@
         <v>1800</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2605,7 +2602,7 @@
         <v>1800</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2625,7 +2622,7 @@
         <v>1800</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2645,7 +2642,7 @@
         <v>1800</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2665,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2673,7 +2670,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C97">
         <v>269000</v>
@@ -2705,7 +2702,7 @@
         <v>1800</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2725,7 +2722,7 @@
         <v>1800</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2745,7 +2742,7 @@
         <v>1800</v>
       </c>
       <c r="F100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2765,7 +2762,7 @@
         <v>1800</v>
       </c>
       <c r="F101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2785,7 +2782,7 @@
         <v>1800</v>
       </c>
       <c r="F102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2805,7 +2802,7 @@
         <v>1800</v>
       </c>
       <c r="F103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2825,10 +2822,10 @@
         <v>1800</v>
       </c>
       <c r="F104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2848,7 +2845,7 @@
         <v>1800</v>
       </c>
       <c r="F105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2868,7 +2865,7 @@
         <v>1800</v>
       </c>
       <c r="F106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2888,7 +2885,7 @@
         <v>1800</v>
       </c>
       <c r="F107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2908,7 +2905,7 @@
         <v>1800</v>
       </c>
       <c r="F108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2928,7 +2925,7 @@
         <v>1800</v>
       </c>
       <c r="F109" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2948,7 +2945,7 @@
         <v>1800</v>
       </c>
       <c r="F110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2968,7 +2965,7 @@
         <v>1800</v>
       </c>
       <c r="F111" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2988,7 +2985,7 @@
         <v>1800</v>
       </c>
       <c r="F112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3008,7 +3005,7 @@
         <v>1800</v>
       </c>
       <c r="F113" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3028,7 +3025,7 @@
         <v>1800</v>
       </c>
       <c r="F114" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3048,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3056,7 +3053,7 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116">
         <v>323500</v>
@@ -3088,7 +3085,7 @@
         <v>1800</v>
       </c>
       <c r="F117" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3108,7 +3105,7 @@
         <v>1800</v>
       </c>
       <c r="F118" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3128,7 +3125,7 @@
         <v>1800</v>
       </c>
       <c r="F119" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3148,7 +3145,7 @@
         <v>1800</v>
       </c>
       <c r="F120" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3168,7 +3165,7 @@
         <v>1800</v>
       </c>
       <c r="F121" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3188,7 +3185,7 @@
         <v>1800</v>
       </c>
       <c r="F122" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3208,7 +3205,7 @@
         <v>1800</v>
       </c>
       <c r="F123" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3228,7 +3225,7 @@
         <v>1800</v>
       </c>
       <c r="F124" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3248,7 +3245,7 @@
         <v>1800</v>
       </c>
       <c r="F125" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3268,7 +3265,7 @@
         <v>1800</v>
       </c>
       <c r="F126" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3288,7 +3285,7 @@
         <v>1800</v>
       </c>
       <c r="F127" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3308,7 +3305,7 @@
         <v>1800</v>
       </c>
       <c r="F128" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3328,7 +3325,7 @@
         <v>1800</v>
       </c>
       <c r="F129" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3348,7 +3345,7 @@
         <v>1800</v>
       </c>
       <c r="F130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3368,10 +3365,10 @@
         <v>1800</v>
       </c>
       <c r="F131" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3391,7 +3388,7 @@
         <v>1800</v>
       </c>
       <c r="F132" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3411,7 +3408,7 @@
         <v>1800</v>
       </c>
       <c r="F133" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3431,7 +3428,7 @@
         <v>1800</v>
       </c>
       <c r="F134" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3451,7 +3448,7 @@
         <v>1800</v>
       </c>
       <c r="F135" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3471,7 +3468,7 @@
         <v>1800</v>
       </c>
       <c r="F136" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3491,7 +3488,7 @@
         <v>1800</v>
       </c>
       <c r="F137" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3511,7 +3508,7 @@
         <v>1800</v>
       </c>
       <c r="F138" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3531,7 +3528,7 @@
         <v>1800</v>
       </c>
       <c r="F139" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3551,7 +3548,7 @@
         <v>1800</v>
       </c>
       <c r="F140" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3571,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3579,7 +3576,7 @@
         <v>32</v>
       </c>
       <c r="B142" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C142">
         <v>395500</v>
@@ -3611,7 +3608,7 @@
         <v>1800</v>
       </c>
       <c r="F143" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3631,7 +3628,7 @@
         <v>1800</v>
       </c>
       <c r="F144" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3651,7 +3648,7 @@
         <v>1800</v>
       </c>
       <c r="F145" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3671,7 +3668,7 @@
         <v>1800</v>
       </c>
       <c r="F146" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3691,7 +3688,7 @@
         <v>1800</v>
       </c>
       <c r="F147" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3711,7 +3708,7 @@
         <v>1800</v>
       </c>
       <c r="F148" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3731,7 +3728,7 @@
         <v>1800</v>
       </c>
       <c r="F149" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3751,7 +3748,7 @@
         <v>1800</v>
       </c>
       <c r="F150" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3771,7 +3768,7 @@
         <v>1800</v>
       </c>
       <c r="F151" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3791,7 +3788,7 @@
         <v>1800</v>
       </c>
       <c r="F152" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3811,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3819,7 +3816,7 @@
         <v>35</v>
       </c>
       <c r="B154" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C154">
         <v>432500</v>
@@ -3851,7 +3848,7 @@
         <v>1800</v>
       </c>
       <c r="F155" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3871,7 +3868,7 @@
         <v>1800</v>
       </c>
       <c r="F156" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3891,7 +3888,7 @@
         <v>1800</v>
       </c>
       <c r="F157" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3911,7 +3908,7 @@
         <v>1800</v>
       </c>
       <c r="F158" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3931,7 +3928,7 @@
         <v>1800</v>
       </c>
       <c r="F159" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3951,7 +3948,7 @@
         <v>1800</v>
       </c>
       <c r="F160" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3971,7 +3968,7 @@
         <v>1800</v>
       </c>
       <c r="F161" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3991,10 +3988,10 @@
         <v>1800</v>
       </c>
       <c r="F162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G162" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4014,7 +4011,7 @@
         <v>1800</v>
       </c>
       <c r="F163" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4034,7 +4031,7 @@
         <v>1800</v>
       </c>
       <c r="F164" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4054,7 +4051,7 @@
         <v>1800</v>
       </c>
       <c r="F165" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4074,7 +4071,7 @@
         <v>1800</v>
       </c>
       <c r="F166" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4094,7 +4091,7 @@
         <v>1800</v>
       </c>
       <c r="F167" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4114,7 +4111,7 @@
         <v>1800</v>
       </c>
       <c r="F168" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4134,7 +4131,7 @@
         <v>1800</v>
       </c>
       <c r="F169" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4154,7 +4151,7 @@
         <v>1800</v>
       </c>
       <c r="F170" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4174,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4182,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C172">
         <v>484500</v>
@@ -4214,7 +4211,7 @@
         <v>1800</v>
       </c>
       <c r="F173" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4234,7 +4231,7 @@
         <v>1800</v>
       </c>
       <c r="F174" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4254,7 +4251,7 @@
         <v>1800</v>
       </c>
       <c r="F175" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4274,7 +4271,7 @@
         <v>1800</v>
       </c>
       <c r="F176" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4294,7 +4291,7 @@
         <v>1800</v>
       </c>
       <c r="F177" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4314,7 +4311,7 @@
         <v>1800</v>
       </c>
       <c r="F178" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4334,7 +4331,7 @@
         <v>1800</v>
       </c>
       <c r="F179" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4354,7 +4351,7 @@
         <v>1800</v>
       </c>
       <c r="F180" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4374,7 +4371,7 @@
         <v>1800</v>
       </c>
       <c r="F181" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4394,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4402,7 +4399,7 @@
         <v>43</v>
       </c>
       <c r="B183" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C183">
         <v>519000</v>
@@ -4434,7 +4431,7 @@
         <v>1800</v>
       </c>
       <c r="F184" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4454,7 +4451,7 @@
         <v>1800</v>
       </c>
       <c r="F185" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4474,7 +4471,7 @@
         <v>1800</v>
       </c>
       <c r="F186" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4494,7 +4491,7 @@
         <v>1800</v>
       </c>
       <c r="F187" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4514,7 +4511,7 @@
         <v>1800</v>
       </c>
       <c r="F188" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4534,7 +4531,7 @@
         <v>1800</v>
       </c>
       <c r="F189" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4554,7 +4551,7 @@
         <v>1800</v>
       </c>
       <c r="F190" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4574,7 +4571,7 @@
         <v>1800</v>
       </c>
       <c r="F191" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4594,10 +4591,10 @@
         <v>1800</v>
       </c>
       <c r="F192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G192" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4617,7 +4614,7 @@
         <v>1800</v>
       </c>
       <c r="F193" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4637,7 +4634,7 @@
         <v>1800</v>
       </c>
       <c r="F194" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4657,7 +4654,7 @@
         <v>1800</v>
       </c>
       <c r="F195" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4677,7 +4674,7 @@
         <v>1800</v>
       </c>
       <c r="F196" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4697,7 +4694,7 @@
         <v>1800</v>
       </c>
       <c r="F197" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4717,7 +4714,7 @@
         <v>1800</v>
       </c>
       <c r="F198" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4737,7 +4734,7 @@
         <v>1800</v>
       </c>
       <c r="F199" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4757,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4765,7 +4762,7 @@
         <v>48</v>
       </c>
       <c r="B201" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C201">
         <v>571000</v>
@@ -4797,7 +4794,7 @@
         <v>1800</v>
       </c>
       <c r="F202" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -4817,7 +4814,7 @@
         <v>1800</v>
       </c>
       <c r="F203" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -4837,7 +4834,7 @@
         <v>1800</v>
       </c>
       <c r="F204" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -4857,7 +4854,7 @@
         <v>1800</v>
       </c>
       <c r="F205" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -4877,7 +4874,7 @@
         <v>1800</v>
       </c>
       <c r="F206" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -4897,7 +4894,7 @@
         <v>1800</v>
       </c>
       <c r="F207" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -4917,7 +4914,7 @@
         <v>1800</v>
       </c>
       <c r="F208" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -4937,7 +4934,7 @@
         <v>1800</v>
       </c>
       <c r="F209" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -4957,7 +4954,7 @@
         <v>1800</v>
       </c>
       <c r="F210" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -4977,7 +4974,7 @@
         <v>1800</v>
       </c>
       <c r="F211" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -4997,7 +4994,7 @@
         <v>1800</v>
       </c>
       <c r="F212" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5017,7 +5014,7 @@
         <v>1800</v>
       </c>
       <c r="F213" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5037,7 +5034,7 @@
         <v>1800</v>
       </c>
       <c r="F214" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5057,7 +5054,7 @@
         <v>1800</v>
       </c>
       <c r="F215" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5077,10 +5074,10 @@
         <v>1800</v>
       </c>
       <c r="F216" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G216" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5100,7 +5097,7 @@
         <v>1800</v>
       </c>
       <c r="F217" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5120,7 +5117,7 @@
         <v>1800</v>
       </c>
       <c r="F218" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5140,7 +5137,7 @@
         <v>1800</v>
       </c>
       <c r="F219" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5160,7 +5157,7 @@
         <v>1800</v>
       </c>
       <c r="F220" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5180,7 +5177,7 @@
         <v>1800</v>
       </c>
       <c r="F221" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5200,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5208,7 +5205,7 @@
         <v>53</v>
       </c>
       <c r="B223" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C223">
         <v>633000</v>
@@ -5240,7 +5237,7 @@
         <v>1800</v>
       </c>
       <c r="F224" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5260,7 +5257,7 @@
         <v>1800</v>
       </c>
       <c r="F225" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5280,7 +5277,7 @@
         <v>1800</v>
       </c>
       <c r="F226" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5300,7 +5297,7 @@
         <v>1800</v>
       </c>
       <c r="F227" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5320,7 +5317,7 @@
         <v>1800</v>
       </c>
       <c r="F228" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5340,7 +5337,7 @@
         <v>1800</v>
       </c>
       <c r="F229" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5360,10 +5357,10 @@
         <v>1800</v>
       </c>
       <c r="F230" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G230" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5383,7 +5380,7 @@
         <v>1800</v>
       </c>
       <c r="F231" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5403,7 +5400,7 @@
         <v>1800</v>
       </c>
       <c r="F232" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5423,7 +5420,7 @@
         <v>1800</v>
       </c>
       <c r="F233" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5443,7 +5440,7 @@
         <v>1800</v>
       </c>
       <c r="F234" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5463,7 +5460,7 @@
         <v>1800</v>
       </c>
       <c r="F235" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5483,7 +5480,7 @@
         <v>1800</v>
       </c>
       <c r="F236" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5503,7 +5500,7 @@
         <v>1800</v>
       </c>
       <c r="F237" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5523,7 +5520,7 @@
         <v>1800</v>
       </c>
       <c r="F238" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5543,7 +5540,7 @@
         <v>1800</v>
       </c>
       <c r="F239" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5563,7 +5560,7 @@
         <v>1800</v>
       </c>
       <c r="F240" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5583,7 +5580,7 @@
         <v>1800</v>
       </c>
       <c r="F241" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5603,7 +5600,7 @@
         <v>1800</v>
       </c>
       <c r="F242" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5623,10 +5620,10 @@
         <v>1800</v>
       </c>
       <c r="F243" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G243" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5646,7 +5643,7 @@
         <v>1800</v>
       </c>
       <c r="F244" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -5666,7 +5663,7 @@
         <v>1800</v>
       </c>
       <c r="F245" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -5686,7 +5683,7 @@
         <v>1800</v>
       </c>
       <c r="F246" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5706,7 +5703,7 @@
         <v>1800</v>
       </c>
       <c r="F247" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -5726,7 +5723,7 @@
         <v>1800</v>
       </c>
       <c r="F248" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -5746,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -5754,7 +5751,7 @@
         <v>60</v>
       </c>
       <c r="B250" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C250">
         <v>707500</v>
@@ -5786,7 +5783,7 @@
         <v>1800</v>
       </c>
       <c r="F251" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -5806,7 +5803,7 @@
         <v>1800</v>
       </c>
       <c r="F252" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5826,7 +5823,7 @@
         <v>1800</v>
       </c>
       <c r="F253" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -5846,7 +5843,7 @@
         <v>1800</v>
       </c>
       <c r="F254" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -5866,7 +5863,7 @@
         <v>1800</v>
       </c>
       <c r="F255" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5886,7 +5883,7 @@
         <v>1800</v>
       </c>
       <c r="F256" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5906,7 +5903,7 @@
         <v>1800</v>
       </c>
       <c r="F257" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -5926,7 +5923,7 @@
         <v>1800</v>
       </c>
       <c r="F258" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -5946,7 +5943,7 @@
         <v>1800</v>
       </c>
       <c r="F259" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -5966,7 +5963,7 @@
         <v>1800</v>
       </c>
       <c r="F260" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -5986,7 +5983,7 @@
         <v>1800</v>
       </c>
       <c r="F261" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6006,10 +6003,10 @@
         <v>1800</v>
       </c>
       <c r="F262" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G262" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6029,7 +6026,7 @@
         <v>1800</v>
       </c>
       <c r="F263" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6049,7 +6046,7 @@
         <v>1800</v>
       </c>
       <c r="F264" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6069,7 +6066,7 @@
         <v>1800</v>
       </c>
       <c r="F265" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6089,7 +6086,7 @@
         <v>1800</v>
       </c>
       <c r="F266" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6109,7 +6106,7 @@
         <v>1800</v>
       </c>
       <c r="F267" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6129,7 +6126,7 @@
         <v>1800</v>
       </c>
       <c r="F268" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6149,7 +6146,7 @@
         <v>1800</v>
       </c>
       <c r="F269" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6169,7 +6166,7 @@
         <v>1800</v>
       </c>
       <c r="F270" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6189,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6197,7 +6194,7 @@
         <v>65</v>
       </c>
       <c r="B272" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C272">
         <v>769500</v>
@@ -6229,7 +6226,7 @@
         <v>1800</v>
       </c>
       <c r="F273" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6249,7 +6246,7 @@
         <v>1800</v>
       </c>
       <c r="F274" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6269,7 +6266,7 @@
         <v>1800</v>
       </c>
       <c r="F275" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6289,7 +6286,7 @@
         <v>1800</v>
       </c>
       <c r="F276" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6309,7 +6306,7 @@
         <v>1800</v>
       </c>
       <c r="F277" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6329,7 +6326,7 @@
         <v>1800</v>
       </c>
       <c r="F278" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6349,10 +6346,10 @@
         <v>1800</v>
       </c>
       <c r="F279" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G279" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6372,7 +6369,7 @@
         <v>1800</v>
       </c>
       <c r="F280" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6392,7 +6389,7 @@
         <v>1800</v>
       </c>
       <c r="F281" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6412,7 +6409,7 @@
         <v>1800</v>
       </c>
       <c r="F282" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6432,7 +6429,7 @@
         <v>1800</v>
       </c>
       <c r="F283" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6452,7 +6449,7 @@
         <v>1800</v>
       </c>
       <c r="F284" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6472,7 +6469,7 @@
         <v>1800</v>
       </c>
       <c r="F285" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6492,7 +6489,7 @@
         <v>1800</v>
       </c>
       <c r="F286" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6512,7 +6509,7 @@
         <v>1800</v>
       </c>
       <c r="F287" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -6532,7 +6529,7 @@
         <v>1800</v>
       </c>
       <c r="F288" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -6552,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -6560,7 +6557,7 @@
         <v>70</v>
       </c>
       <c r="B290" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C290">
         <v>821500</v>
@@ -6592,7 +6589,7 @@
         <v>1800</v>
       </c>
       <c r="F291" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -6612,7 +6609,7 @@
         <v>1800</v>
       </c>
       <c r="F292" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -6632,7 +6629,7 @@
         <v>1800</v>
       </c>
       <c r="F293" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -6652,7 +6649,7 @@
         <v>1800</v>
       </c>
       <c r="F294" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -6672,7 +6669,7 @@
         <v>1800</v>
       </c>
       <c r="F295" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -6692,7 +6689,7 @@
         <v>1800</v>
       </c>
       <c r="F296" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -6712,7 +6709,7 @@
         <v>1800</v>
       </c>
       <c r="F297" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -6732,7 +6729,7 @@
         <v>1800</v>
       </c>
       <c r="F298" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -6752,7 +6749,7 @@
         <v>1800</v>
       </c>
       <c r="F299" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -6772,7 +6769,7 @@
         <v>1800</v>
       </c>
       <c r="F300" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -6792,7 +6789,7 @@
         <v>1800</v>
       </c>
       <c r="F301" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -6812,7 +6809,7 @@
         <v>1800</v>
       </c>
       <c r="F302" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -6832,7 +6829,7 @@
         <v>1800</v>
       </c>
       <c r="F303" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -6852,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -6860,7 +6857,7 @@
         <v>73</v>
       </c>
       <c r="B305" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C305">
         <v>866000</v>
@@ -6892,7 +6889,7 @@
         <v>1800</v>
       </c>
       <c r="F306" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -6912,7 +6909,7 @@
         <v>1800</v>
       </c>
       <c r="F307" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -6932,7 +6929,7 @@
         <v>1800</v>
       </c>
       <c r="F308" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -6952,7 +6949,7 @@
         <v>1800</v>
       </c>
       <c r="F309" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -6972,7 +6969,7 @@
         <v>1800</v>
       </c>
       <c r="F310" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -6992,7 +6989,7 @@
         <v>1800</v>
       </c>
       <c r="F311" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7012,7 +7009,7 @@
         <v>1800</v>
       </c>
       <c r="F312" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7032,7 +7029,7 @@
         <v>1800</v>
       </c>
       <c r="F313" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7052,7 +7049,7 @@
         <v>1800</v>
       </c>
       <c r="F314" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7072,7 +7069,7 @@
         <v>1800</v>
       </c>
       <c r="F315" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7092,7 +7089,7 @@
         <v>1800</v>
       </c>
       <c r="F316" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7112,7 +7109,7 @@
         <v>1800</v>
       </c>
       <c r="F317" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7132,7 +7129,7 @@
         <v>1800</v>
       </c>
       <c r="F318" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7152,7 +7149,7 @@
         <v>1800</v>
       </c>
       <c r="F319" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7172,7 +7169,7 @@
         <v>1800</v>
       </c>
       <c r="F320" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7192,7 +7189,7 @@
         <v>1800</v>
       </c>
       <c r="F321" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7212,7 +7209,7 @@
         <v>1800</v>
       </c>
       <c r="F322" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7232,7 +7229,7 @@
         <v>1800</v>
       </c>
       <c r="F323" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7252,7 +7249,7 @@
         <v>1800</v>
       </c>
       <c r="F324" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7272,7 +7269,7 @@
         <v>1800</v>
       </c>
       <c r="F325" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7292,7 +7289,7 @@
         <v>1800</v>
       </c>
       <c r="F326" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7312,7 +7309,7 @@
         <v>1800</v>
       </c>
       <c r="F327" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7332,7 +7329,7 @@
         <v>1800</v>
       </c>
       <c r="F328" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7352,7 +7349,7 @@
         <v>1800</v>
       </c>
       <c r="F329" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7372,7 +7369,7 @@
         <v>1800</v>
       </c>
       <c r="F330" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7392,7 +7389,7 @@
         <v>1800</v>
       </c>
       <c r="F331" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7412,7 +7409,7 @@
         <v>1800</v>
       </c>
       <c r="F332" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7432,7 +7429,7 @@
         <v>1800</v>
       </c>
       <c r="F333" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7452,7 +7449,7 @@
         <v>1800</v>
       </c>
       <c r="F334" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7472,7 +7469,7 @@
         <v>1800</v>
       </c>
       <c r="F335" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7492,7 +7489,7 @@
         <v>1800</v>
       </c>
       <c r="F336" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7512,7 +7509,7 @@
         <v>1800</v>
       </c>
       <c r="F337" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7532,7 +7529,7 @@
         <v>1800</v>
       </c>
       <c r="F338" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7552,7 +7549,7 @@
         <v>1800</v>
       </c>
       <c r="F339" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7572,7 +7569,7 @@
         <v>1800</v>
       </c>
       <c r="F340" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7592,7 +7589,7 @@
         <v>1800</v>
       </c>
       <c r="F341" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7612,7 +7609,7 @@
         <v>1800</v>
       </c>
       <c r="F342" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7632,7 +7629,7 @@
         <v>1800</v>
       </c>
       <c r="F343" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7652,7 +7649,7 @@
         <v>1800</v>
       </c>
       <c r="F344" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7672,7 +7669,7 @@
         <v>1800</v>
       </c>
       <c r="F345" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7692,7 +7689,7 @@
         <v>1800</v>
       </c>
       <c r="F346" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/CDSImagingPilotProtocol_TimingsBlock3.xlsx
+++ b/CDSImagingPilotProtocol_TimingsBlock3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cchmc-my.sharepoint.com/personal/nicholas_dunn_cchmc_org/Documents/Documents/06 - Neuroimaging Study/SART/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Research\Computerized Tasks\Sustained Attention to Response Task\sart-tp-psychopy-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_714D2B67887E9C4C718CD3E7F9012D16618A10DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D28C12-85E3-4EAA-936D-0519071D2357}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F2FDDA-B44F-4B5C-876F-D82FBC75B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="95">
   <si>
     <t>Non-target</t>
   </si>
@@ -281,54 +281,6 @@
     <t>Non-target</t>
   </si>
   <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
-    <t>Where was your attention focused?</t>
-  </si>
-  <si>
     <t>trialType</t>
   </si>
   <si>
@@ -366,6 +318,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Where was your attention focused just before the probe?</t>
   </si>
 </sst>
 </file>
@@ -415,10 +370,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,7 +672,7 @@
   <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,25 +686,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -773,7 +724,7 @@
         <v>1800</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -793,7 +744,7 @@
         <v>1800</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -813,7 +764,7 @@
         <v>1800</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -833,7 +784,7 @@
         <v>1800</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -853,7 +804,7 @@
         <v>1800</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -873,7 +824,7 @@
         <v>1800</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -893,7 +844,7 @@
         <v>1800</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -913,7 +864,7 @@
         <v>1800</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -933,7 +884,7 @@
         <v>1800</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -953,7 +904,7 @@
         <v>1800</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -973,7 +924,7 @@
         <v>1800</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -993,7 +944,7 @@
         <v>1800</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1013,7 +964,7 @@
         <v>1800</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1033,7 +984,7 @@
         <v>1800</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1053,7 +1004,7 @@
         <v>1800</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1073,7 +1024,7 @@
         <v>1800</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1081,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>40000</v>
@@ -1093,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1101,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>46000</v>
@@ -1113,7 +1064,7 @@
         <v>5000</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1133,7 +1084,7 @@
         <v>1800</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1153,7 +1104,7 @@
         <v>1800</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1173,7 +1124,7 @@
         <v>1800</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1193,7 +1144,7 @@
         <v>1800</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1213,7 +1164,7 @@
         <v>1800</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1233,7 +1184,7 @@
         <v>1800</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1253,7 +1204,7 @@
         <v>1800</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1273,7 +1224,7 @@
         <v>1800</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1293,7 +1244,7 @@
         <v>1800</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1313,7 +1264,7 @@
         <v>1800</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1333,7 +1284,7 @@
         <v>1800</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1353,7 +1304,7 @@
         <v>1800</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1373,10 +1324,10 @@
         <v>1800</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1396,7 +1347,7 @@
         <v>1800</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1416,7 +1367,7 @@
         <v>1800</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1436,7 +1387,7 @@
         <v>1800</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1456,7 +1407,7 @@
         <v>1800</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1476,7 +1427,7 @@
         <v>1800</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1496,7 +1447,7 @@
         <v>1800</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1516,7 +1467,7 @@
         <v>1800</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1536,7 +1487,7 @@
         <v>1800</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1556,7 +1507,7 @@
         <v>1800</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1576,7 +1527,7 @@
         <v>1800</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1596,7 +1547,7 @@
         <v>1800</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1616,7 +1567,7 @@
         <v>1800</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1636,7 +1587,7 @@
         <v>1800</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1656,7 +1607,7 @@
         <v>1800</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1664,7 +1615,7 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C47">
         <v>119500</v>
@@ -1676,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1684,7 +1635,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>125500</v>
@@ -1696,7 +1647,7 @@
         <v>5000</v>
       </c>
       <c r="G48" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1716,7 +1667,7 @@
         <v>1800</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1736,7 +1687,7 @@
         <v>1800</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1756,7 +1707,7 @@
         <v>1800</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1776,7 +1727,7 @@
         <v>1800</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1796,7 +1747,7 @@
         <v>1800</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1816,7 +1767,7 @@
         <v>1800</v>
       </c>
       <c r="F54" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1836,7 +1787,7 @@
         <v>1800</v>
       </c>
       <c r="F55" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1856,7 +1807,7 @@
         <v>1800</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1876,7 +1827,7 @@
         <v>1800</v>
       </c>
       <c r="F57" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1896,7 +1847,7 @@
         <v>1800</v>
       </c>
       <c r="F58" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1916,7 +1867,7 @@
         <v>1800</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1936,7 +1887,7 @@
         <v>1800</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1944,7 +1895,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C61">
         <v>161500</v>
@@ -1956,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1964,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C62">
         <v>167500</v>
@@ -1976,7 +1927,7 @@
         <v>5000</v>
       </c>
       <c r="G62" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1996,7 +1947,7 @@
         <v>1800</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2016,7 +1967,7 @@
         <v>1800</v>
       </c>
       <c r="F64" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2036,7 +1987,7 @@
         <v>1800</v>
       </c>
       <c r="F65" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2056,7 +2007,7 @@
         <v>1800</v>
       </c>
       <c r="F66" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2076,7 +2027,7 @@
         <v>1800</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2096,7 +2047,7 @@
         <v>1800</v>
       </c>
       <c r="F68" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2116,7 +2067,7 @@
         <v>1800</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2136,10 +2087,10 @@
         <v>1800</v>
       </c>
       <c r="F70" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G70" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2159,7 +2110,7 @@
         <v>1800</v>
       </c>
       <c r="F71" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2179,7 +2130,7 @@
         <v>1800</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2199,7 +2150,7 @@
         <v>1800</v>
       </c>
       <c r="F73" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2219,7 +2170,7 @@
         <v>1800</v>
       </c>
       <c r="F74" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2239,7 +2190,7 @@
         <v>1800</v>
       </c>
       <c r="F75" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2247,7 +2198,7 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C76">
         <v>206000</v>
@@ -2259,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2267,7 +2218,7 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C77">
         <v>212000</v>
@@ -2279,7 +2230,7 @@
         <v>5000</v>
       </c>
       <c r="G77" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2299,7 +2250,7 @@
         <v>1800</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2319,7 +2270,7 @@
         <v>1800</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2339,7 +2290,7 @@
         <v>1800</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2359,7 +2310,7 @@
         <v>1800</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2379,7 +2330,7 @@
         <v>1800</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2399,7 +2350,7 @@
         <v>1800</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2419,7 +2370,7 @@
         <v>1800</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2439,7 +2390,7 @@
         <v>1800</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2459,7 +2410,7 @@
         <v>1800</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2479,7 +2430,7 @@
         <v>1800</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2499,7 +2450,7 @@
         <v>1800</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2519,7 +2470,7 @@
         <v>1800</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2539,7 +2490,7 @@
         <v>1800</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2559,10 +2510,10 @@
         <v>1800</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G91" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2582,7 +2533,7 @@
         <v>1800</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2602,7 +2553,7 @@
         <v>1800</v>
       </c>
       <c r="F93" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2622,7 +2573,7 @@
         <v>1800</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2642,7 +2593,7 @@
         <v>1800</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2650,7 +2601,7 @@
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C96">
         <v>263000</v>
@@ -2662,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2670,7 +2621,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C97">
         <v>269000</v>
@@ -2682,7 +2633,7 @@
         <v>5000</v>
       </c>
       <c r="G97" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2702,7 +2653,7 @@
         <v>1800</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2722,7 +2673,7 @@
         <v>1800</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2742,7 +2693,7 @@
         <v>1800</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2762,7 +2713,7 @@
         <v>1800</v>
       </c>
       <c r="F101" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2782,7 +2733,7 @@
         <v>1800</v>
       </c>
       <c r="F102" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2802,7 +2753,7 @@
         <v>1800</v>
       </c>
       <c r="F103" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2822,10 +2773,10 @@
         <v>1800</v>
       </c>
       <c r="F104" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G104" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2845,7 +2796,7 @@
         <v>1800</v>
       </c>
       <c r="F105" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2865,7 +2816,7 @@
         <v>1800</v>
       </c>
       <c r="F106" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2885,7 +2836,7 @@
         <v>1800</v>
       </c>
       <c r="F107" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2905,7 +2856,7 @@
         <v>1800</v>
       </c>
       <c r="F108" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2925,7 +2876,7 @@
         <v>1800</v>
       </c>
       <c r="F109" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2945,7 +2896,7 @@
         <v>1800</v>
       </c>
       <c r="F110" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2965,7 +2916,7 @@
         <v>1800</v>
       </c>
       <c r="F111" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2985,7 +2936,7 @@
         <v>1800</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3005,7 +2956,7 @@
         <v>1800</v>
       </c>
       <c r="F113" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3025,7 +2976,7 @@
         <v>1800</v>
       </c>
       <c r="F114" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3033,7 +2984,7 @@
         <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C115">
         <v>317500</v>
@@ -3045,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3053,7 +3004,7 @@
         <v>27</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C116">
         <v>323500</v>
@@ -3065,7 +3016,7 @@
         <v>5000</v>
       </c>
       <c r="G116" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3085,7 +3036,7 @@
         <v>1800</v>
       </c>
       <c r="F117" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3105,7 +3056,7 @@
         <v>1800</v>
       </c>
       <c r="F118" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3125,7 +3076,7 @@
         <v>1800</v>
       </c>
       <c r="F119" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3145,7 +3096,7 @@
         <v>1800</v>
       </c>
       <c r="F120" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3165,7 +3116,7 @@
         <v>1800</v>
       </c>
       <c r="F121" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3185,7 +3136,7 @@
         <v>1800</v>
       </c>
       <c r="F122" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3205,7 +3156,7 @@
         <v>1800</v>
       </c>
       <c r="F123" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3225,7 +3176,7 @@
         <v>1800</v>
       </c>
       <c r="F124" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3245,7 +3196,7 @@
         <v>1800</v>
       </c>
       <c r="F125" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3265,7 +3216,7 @@
         <v>1800</v>
       </c>
       <c r="F126" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3285,7 +3236,7 @@
         <v>1800</v>
       </c>
       <c r="F127" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3305,7 +3256,7 @@
         <v>1800</v>
       </c>
       <c r="F128" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3325,7 +3276,7 @@
         <v>1800</v>
       </c>
       <c r="F129" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3345,7 +3296,7 @@
         <v>1800</v>
       </c>
       <c r="F130" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3365,10 +3316,10 @@
         <v>1800</v>
       </c>
       <c r="F131" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G131" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3388,7 +3339,7 @@
         <v>1800</v>
       </c>
       <c r="F132" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3408,7 +3359,7 @@
         <v>1800</v>
       </c>
       <c r="F133" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3428,7 +3379,7 @@
         <v>1800</v>
       </c>
       <c r="F134" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3448,7 +3399,7 @@
         <v>1800</v>
       </c>
       <c r="F135" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3468,7 +3419,7 @@
         <v>1800</v>
       </c>
       <c r="F136" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3488,7 +3439,7 @@
         <v>1800</v>
       </c>
       <c r="F137" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3508,7 +3459,7 @@
         <v>1800</v>
       </c>
       <c r="F138" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3528,7 +3479,7 @@
         <v>1800</v>
       </c>
       <c r="F139" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3548,7 +3499,7 @@
         <v>1800</v>
       </c>
       <c r="F140" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3556,7 +3507,7 @@
         <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C141">
         <v>389500</v>
@@ -3568,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3576,7 +3527,7 @@
         <v>32</v>
       </c>
       <c r="B142" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C142">
         <v>395500</v>
@@ -3588,7 +3539,7 @@
         <v>5000</v>
       </c>
       <c r="G142" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3608,7 +3559,7 @@
         <v>1800</v>
       </c>
       <c r="F143" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3628,7 +3579,7 @@
         <v>1800</v>
       </c>
       <c r="F144" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3648,7 +3599,7 @@
         <v>1800</v>
       </c>
       <c r="F145" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3668,7 +3619,7 @@
         <v>1800</v>
       </c>
       <c r="F146" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3688,7 +3639,7 @@
         <v>1800</v>
       </c>
       <c r="F147" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3708,7 +3659,7 @@
         <v>1800</v>
       </c>
       <c r="F148" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3728,7 +3679,7 @@
         <v>1800</v>
       </c>
       <c r="F149" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3748,7 +3699,7 @@
         <v>1800</v>
       </c>
       <c r="F150" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3768,7 +3719,7 @@
         <v>1800</v>
       </c>
       <c r="F151" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3788,7 +3739,7 @@
         <v>1800</v>
       </c>
       <c r="F152" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3796,7 +3747,7 @@
         <v>34</v>
       </c>
       <c r="B153" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C153">
         <v>426500</v>
@@ -3808,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3816,7 +3767,7 @@
         <v>35</v>
       </c>
       <c r="B154" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C154">
         <v>432500</v>
@@ -3828,7 +3779,7 @@
         <v>5000</v>
       </c>
       <c r="G154" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3848,7 +3799,7 @@
         <v>1800</v>
       </c>
       <c r="F155" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3868,7 +3819,7 @@
         <v>1800</v>
       </c>
       <c r="F156" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -3888,7 +3839,7 @@
         <v>1800</v>
       </c>
       <c r="F157" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -3908,7 +3859,7 @@
         <v>1800</v>
       </c>
       <c r="F158" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -3928,7 +3879,7 @@
         <v>1800</v>
       </c>
       <c r="F159" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -3948,7 +3899,7 @@
         <v>1800</v>
       </c>
       <c r="F160" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -3968,7 +3919,7 @@
         <v>1800</v>
       </c>
       <c r="F161" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3988,10 +3939,10 @@
         <v>1800</v>
       </c>
       <c r="F162" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G162" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4011,7 +3962,7 @@
         <v>1800</v>
       </c>
       <c r="F163" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4031,7 +3982,7 @@
         <v>1800</v>
       </c>
       <c r="F164" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4051,7 +4002,7 @@
         <v>1800</v>
       </c>
       <c r="F165" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4071,7 +4022,7 @@
         <v>1800</v>
       </c>
       <c r="F166" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4091,7 +4042,7 @@
         <v>1800</v>
       </c>
       <c r="F167" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4111,7 +4062,7 @@
         <v>1800</v>
       </c>
       <c r="F168" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4131,7 +4082,7 @@
         <v>1800</v>
       </c>
       <c r="F169" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4151,7 +4102,7 @@
         <v>1800</v>
       </c>
       <c r="F170" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4159,7 +4110,7 @@
         <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C171">
         <v>478500</v>
@@ -4171,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4179,7 +4130,7 @@
         <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C172">
         <v>484500</v>
@@ -4191,7 +4142,7 @@
         <v>5000</v>
       </c>
       <c r="G172" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4211,7 +4162,7 @@
         <v>1800</v>
       </c>
       <c r="F173" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4231,7 +4182,7 @@
         <v>1800</v>
       </c>
       <c r="F174" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4251,7 +4202,7 @@
         <v>1800</v>
       </c>
       <c r="F175" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4271,7 +4222,7 @@
         <v>1800</v>
       </c>
       <c r="F176" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4291,7 +4242,7 @@
         <v>1800</v>
       </c>
       <c r="F177" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4311,7 +4262,7 @@
         <v>1800</v>
       </c>
       <c r="F178" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4331,7 +4282,7 @@
         <v>1800</v>
       </c>
       <c r="F179" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4351,7 +4302,7 @@
         <v>1800</v>
       </c>
       <c r="F180" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4371,7 +4322,7 @@
         <v>1800</v>
       </c>
       <c r="F181" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4379,7 +4330,7 @@
         <v>42</v>
       </c>
       <c r="B182" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C182">
         <v>513000</v>
@@ -4391,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4399,7 +4350,7 @@
         <v>43</v>
       </c>
       <c r="B183" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C183">
         <v>519000</v>
@@ -4411,7 +4362,7 @@
         <v>5000</v>
       </c>
       <c r="G183" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4431,7 +4382,7 @@
         <v>1800</v>
       </c>
       <c r="F184" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4451,7 +4402,7 @@
         <v>1800</v>
       </c>
       <c r="F185" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4471,7 +4422,7 @@
         <v>1800</v>
       </c>
       <c r="F186" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4491,7 +4442,7 @@
         <v>1800</v>
       </c>
       <c r="F187" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4511,7 +4462,7 @@
         <v>1800</v>
       </c>
       <c r="F188" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4531,7 +4482,7 @@
         <v>1800</v>
       </c>
       <c r="F189" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4551,7 +4502,7 @@
         <v>1800</v>
       </c>
       <c r="F190" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4571,7 +4522,7 @@
         <v>1800</v>
       </c>
       <c r="F191" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4591,10 +4542,10 @@
         <v>1800</v>
       </c>
       <c r="F192" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G192" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4614,7 +4565,7 @@
         <v>1800</v>
       </c>
       <c r="F193" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4634,7 +4585,7 @@
         <v>1800</v>
       </c>
       <c r="F194" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4654,7 +4605,7 @@
         <v>1800</v>
       </c>
       <c r="F195" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4674,7 +4625,7 @@
         <v>1800</v>
       </c>
       <c r="F196" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4694,7 +4645,7 @@
         <v>1800</v>
       </c>
       <c r="F197" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4714,7 +4665,7 @@
         <v>1800</v>
       </c>
       <c r="F198" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4734,7 +4685,7 @@
         <v>1800</v>
       </c>
       <c r="F199" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4742,7 +4693,7 @@
         <v>47</v>
       </c>
       <c r="B200" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C200">
         <v>565000</v>
@@ -4754,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -4762,7 +4713,7 @@
         <v>48</v>
       </c>
       <c r="B201" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C201">
         <v>571000</v>
@@ -4774,7 +4725,7 @@
         <v>5000</v>
       </c>
       <c r="G201" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -4794,7 +4745,7 @@
         <v>1800</v>
       </c>
       <c r="F202" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -4814,7 +4765,7 @@
         <v>1800</v>
       </c>
       <c r="F203" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -4834,7 +4785,7 @@
         <v>1800</v>
       </c>
       <c r="F204" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -4854,7 +4805,7 @@
         <v>1800</v>
       </c>
       <c r="F205" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -4874,7 +4825,7 @@
         <v>1800</v>
       </c>
       <c r="F206" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -4894,7 +4845,7 @@
         <v>1800</v>
       </c>
       <c r="F207" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -4914,7 +4865,7 @@
         <v>1800</v>
       </c>
       <c r="F208" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -4934,7 +4885,7 @@
         <v>1800</v>
       </c>
       <c r="F209" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -4954,7 +4905,7 @@
         <v>1800</v>
       </c>
       <c r="F210" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -4974,7 +4925,7 @@
         <v>1800</v>
       </c>
       <c r="F211" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -4994,7 +4945,7 @@
         <v>1800</v>
       </c>
       <c r="F212" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5014,7 +4965,7 @@
         <v>1800</v>
       </c>
       <c r="F213" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5034,7 +4985,7 @@
         <v>1800</v>
       </c>
       <c r="F214" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5054,7 +5005,7 @@
         <v>1800</v>
       </c>
       <c r="F215" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5074,10 +5025,10 @@
         <v>1800</v>
       </c>
       <c r="F216" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G216" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5097,7 +5048,7 @@
         <v>1800</v>
       </c>
       <c r="F217" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5117,7 +5068,7 @@
         <v>1800</v>
       </c>
       <c r="F218" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5137,7 +5088,7 @@
         <v>1800</v>
       </c>
       <c r="F219" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5157,7 +5108,7 @@
         <v>1800</v>
       </c>
       <c r="F220" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5177,7 +5128,7 @@
         <v>1800</v>
       </c>
       <c r="F221" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5185,7 +5136,7 @@
         <v>52</v>
       </c>
       <c r="B222" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C222">
         <v>627000</v>
@@ -5197,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5205,7 +5156,7 @@
         <v>53</v>
       </c>
       <c r="B223" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C223">
         <v>633000</v>
@@ -5217,7 +5168,7 @@
         <v>5000</v>
       </c>
       <c r="G223" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5237,7 +5188,7 @@
         <v>1800</v>
       </c>
       <c r="F224" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5257,7 +5208,7 @@
         <v>1800</v>
       </c>
       <c r="F225" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5277,7 +5228,7 @@
         <v>1800</v>
       </c>
       <c r="F226" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5297,7 +5248,7 @@
         <v>1800</v>
       </c>
       <c r="F227" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5317,7 +5268,7 @@
         <v>1800</v>
       </c>
       <c r="F228" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5337,7 +5288,7 @@
         <v>1800</v>
       </c>
       <c r="F229" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5357,10 +5308,10 @@
         <v>1800</v>
       </c>
       <c r="F230" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G230" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5380,7 +5331,7 @@
         <v>1800</v>
       </c>
       <c r="F231" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5400,7 +5351,7 @@
         <v>1800</v>
       </c>
       <c r="F232" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5420,7 +5371,7 @@
         <v>1800</v>
       </c>
       <c r="F233" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5440,7 +5391,7 @@
         <v>1800</v>
       </c>
       <c r="F234" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5460,7 +5411,7 @@
         <v>1800</v>
       </c>
       <c r="F235" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5480,7 +5431,7 @@
         <v>1800</v>
       </c>
       <c r="F236" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5500,7 +5451,7 @@
         <v>1800</v>
       </c>
       <c r="F237" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5520,7 +5471,7 @@
         <v>1800</v>
       </c>
       <c r="F238" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5540,7 +5491,7 @@
         <v>1800</v>
       </c>
       <c r="F239" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5560,7 +5511,7 @@
         <v>1800</v>
       </c>
       <c r="F240" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5580,7 +5531,7 @@
         <v>1800</v>
       </c>
       <c r="F241" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5600,7 +5551,7 @@
         <v>1800</v>
       </c>
       <c r="F242" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5620,10 +5571,10 @@
         <v>1800</v>
       </c>
       <c r="F243" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G243" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5643,7 +5594,7 @@
         <v>1800</v>
       </c>
       <c r="F244" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -5663,7 +5614,7 @@
         <v>1800</v>
       </c>
       <c r="F245" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -5683,7 +5634,7 @@
         <v>1800</v>
       </c>
       <c r="F246" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5703,7 +5654,7 @@
         <v>1800</v>
       </c>
       <c r="F247" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -5723,7 +5674,7 @@
         <v>1800</v>
       </c>
       <c r="F248" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -5731,7 +5682,7 @@
         <v>59</v>
       </c>
       <c r="B249" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C249">
         <v>701500</v>
@@ -5743,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="G249" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -5751,7 +5702,7 @@
         <v>60</v>
       </c>
       <c r="B250" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C250">
         <v>707500</v>
@@ -5763,7 +5714,7 @@
         <v>5000</v>
       </c>
       <c r="G250" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -5783,7 +5734,7 @@
         <v>1800</v>
       </c>
       <c r="F251" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -5803,7 +5754,7 @@
         <v>1800</v>
       </c>
       <c r="F252" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5823,7 +5774,7 @@
         <v>1800</v>
       </c>
       <c r="F253" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -5843,7 +5794,7 @@
         <v>1800</v>
       </c>
       <c r="F254" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -5863,7 +5814,7 @@
         <v>1800</v>
       </c>
       <c r="F255" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5883,7 +5834,7 @@
         <v>1800</v>
       </c>
       <c r="F256" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5903,7 +5854,7 @@
         <v>1800</v>
       </c>
       <c r="F257" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -5923,7 +5874,7 @@
         <v>1800</v>
       </c>
       <c r="F258" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -5943,7 +5894,7 @@
         <v>1800</v>
       </c>
       <c r="F259" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -5963,7 +5914,7 @@
         <v>1800</v>
       </c>
       <c r="F260" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -5983,7 +5934,7 @@
         <v>1800</v>
       </c>
       <c r="F261" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6003,10 +5954,10 @@
         <v>1800</v>
       </c>
       <c r="F262" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G262" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6026,7 +5977,7 @@
         <v>1800</v>
       </c>
       <c r="F263" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6046,7 +5997,7 @@
         <v>1800</v>
       </c>
       <c r="F264" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6066,7 +6017,7 @@
         <v>1800</v>
       </c>
       <c r="F265" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6086,7 +6037,7 @@
         <v>1800</v>
       </c>
       <c r="F266" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6106,7 +6057,7 @@
         <v>1800</v>
       </c>
       <c r="F267" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6126,7 +6077,7 @@
         <v>1800</v>
       </c>
       <c r="F268" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6146,7 +6097,7 @@
         <v>1800</v>
       </c>
       <c r="F269" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6166,7 +6117,7 @@
         <v>1800</v>
       </c>
       <c r="F270" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6186,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6194,7 +6145,7 @@
         <v>65</v>
       </c>
       <c r="B272" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C272">
         <v>769500</v>
@@ -6206,7 +6157,7 @@
         <v>5000</v>
       </c>
       <c r="G272" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6226,7 +6177,7 @@
         <v>1800</v>
       </c>
       <c r="F273" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6246,7 +6197,7 @@
         <v>1800</v>
       </c>
       <c r="F274" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6266,7 +6217,7 @@
         <v>1800</v>
       </c>
       <c r="F275" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6286,7 +6237,7 @@
         <v>1800</v>
       </c>
       <c r="F276" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6306,7 +6257,7 @@
         <v>1800</v>
       </c>
       <c r="F277" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6326,7 +6277,7 @@
         <v>1800</v>
       </c>
       <c r="F278" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6346,10 +6297,10 @@
         <v>1800</v>
       </c>
       <c r="F279" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G279" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6369,7 +6320,7 @@
         <v>1800</v>
       </c>
       <c r="F280" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6389,7 +6340,7 @@
         <v>1800</v>
       </c>
       <c r="F281" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6409,7 +6360,7 @@
         <v>1800</v>
       </c>
       <c r="F282" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6429,7 +6380,7 @@
         <v>1800</v>
       </c>
       <c r="F283" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6449,7 +6400,7 @@
         <v>1800</v>
       </c>
       <c r="F284" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6469,7 +6420,7 @@
         <v>1800</v>
       </c>
       <c r="F285" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6489,7 +6440,7 @@
         <v>1800</v>
       </c>
       <c r="F286" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6509,7 +6460,7 @@
         <v>1800</v>
       </c>
       <c r="F287" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -6529,7 +6480,7 @@
         <v>1800</v>
       </c>
       <c r="F288" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -6537,7 +6488,7 @@
         <v>69</v>
       </c>
       <c r="B289" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C289">
         <v>815500</v>
@@ -6549,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="G289" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -6557,7 +6508,7 @@
         <v>70</v>
       </c>
       <c r="B290" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C290">
         <v>821500</v>
@@ -6569,7 +6520,7 @@
         <v>5000</v>
       </c>
       <c r="G290" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -6589,7 +6540,7 @@
         <v>1800</v>
       </c>
       <c r="F291" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -6609,7 +6560,7 @@
         <v>1800</v>
       </c>
       <c r="F292" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -6629,7 +6580,7 @@
         <v>1800</v>
       </c>
       <c r="F293" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -6649,7 +6600,7 @@
         <v>1800</v>
       </c>
       <c r="F294" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -6669,7 +6620,7 @@
         <v>1800</v>
       </c>
       <c r="F295" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -6689,7 +6640,7 @@
         <v>1800</v>
       </c>
       <c r="F296" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -6709,7 +6660,7 @@
         <v>1800</v>
       </c>
       <c r="F297" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -6729,7 +6680,7 @@
         <v>1800</v>
       </c>
       <c r="F298" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -6749,7 +6700,7 @@
         <v>1800</v>
       </c>
       <c r="F299" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -6769,7 +6720,7 @@
         <v>1800</v>
       </c>
       <c r="F300" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -6789,7 +6740,7 @@
         <v>1800</v>
       </c>
       <c r="F301" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -6809,7 +6760,7 @@
         <v>1800</v>
       </c>
       <c r="F302" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -6829,7 +6780,7 @@
         <v>1800</v>
       </c>
       <c r="F303" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -6837,7 +6788,7 @@
         <v>72</v>
       </c>
       <c r="B304" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C304">
         <v>860000</v>
@@ -6849,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -6857,7 +6808,7 @@
         <v>73</v>
       </c>
       <c r="B305" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C305">
         <v>866000</v>
@@ -6869,7 +6820,7 @@
         <v>5000</v>
       </c>
       <c r="G305" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -6889,7 +6840,7 @@
         <v>1800</v>
       </c>
       <c r="F306" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -6909,7 +6860,7 @@
         <v>1800</v>
       </c>
       <c r="F307" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -6929,7 +6880,7 @@
         <v>1800</v>
       </c>
       <c r="F308" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -6949,7 +6900,7 @@
         <v>1800</v>
       </c>
       <c r="F309" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -6969,7 +6920,7 @@
         <v>1800</v>
       </c>
       <c r="F310" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -6989,7 +6940,7 @@
         <v>1800</v>
       </c>
       <c r="F311" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7009,7 +6960,7 @@
         <v>1800</v>
       </c>
       <c r="F312" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7029,7 +6980,7 @@
         <v>1800</v>
       </c>
       <c r="F313" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7049,7 +7000,7 @@
         <v>1800</v>
       </c>
       <c r="F314" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7069,7 +7020,7 @@
         <v>1800</v>
       </c>
       <c r="F315" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7089,7 +7040,7 @@
         <v>1800</v>
       </c>
       <c r="F316" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7109,7 +7060,7 @@
         <v>1800</v>
       </c>
       <c r="F317" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7129,7 +7080,7 @@
         <v>1800</v>
       </c>
       <c r="F318" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7149,7 +7100,7 @@
         <v>1800</v>
       </c>
       <c r="F319" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7169,7 +7120,7 @@
         <v>1800</v>
       </c>
       <c r="F320" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7189,7 +7140,7 @@
         <v>1800</v>
       </c>
       <c r="F321" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7209,7 +7160,7 @@
         <v>1800</v>
       </c>
       <c r="F322" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7229,7 +7180,7 @@
         <v>1800</v>
       </c>
       <c r="F323" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7249,7 +7200,7 @@
         <v>1800</v>
       </c>
       <c r="F324" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7269,7 +7220,7 @@
         <v>1800</v>
       </c>
       <c r="F325" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7289,7 +7240,7 @@
         <v>1800</v>
       </c>
       <c r="F326" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7309,7 +7260,7 @@
         <v>1800</v>
       </c>
       <c r="F327" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7329,7 +7280,7 @@
         <v>1800</v>
       </c>
       <c r="F328" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7349,7 +7300,7 @@
         <v>1800</v>
       </c>
       <c r="F329" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7369,7 +7320,7 @@
         <v>1800</v>
       </c>
       <c r="F330" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7389,7 +7340,7 @@
         <v>1800</v>
       </c>
       <c r="F331" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7409,7 +7360,7 @@
         <v>1800</v>
       </c>
       <c r="F332" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7429,7 +7380,7 @@
         <v>1800</v>
       </c>
       <c r="F333" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7449,7 +7400,7 @@
         <v>1800</v>
       </c>
       <c r="F334" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7469,7 +7420,7 @@
         <v>1800</v>
       </c>
       <c r="F335" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7489,7 +7440,7 @@
         <v>1800</v>
       </c>
       <c r="F336" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7509,7 +7460,7 @@
         <v>1800</v>
       </c>
       <c r="F337" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7529,7 +7480,7 @@
         <v>1800</v>
       </c>
       <c r="F338" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7549,7 +7500,7 @@
         <v>1800</v>
       </c>
       <c r="F339" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7569,7 +7520,7 @@
         <v>1800</v>
       </c>
       <c r="F340" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7589,7 +7540,7 @@
         <v>1800</v>
       </c>
       <c r="F341" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7609,7 +7560,7 @@
         <v>1800</v>
       </c>
       <c r="F342" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7629,7 +7580,7 @@
         <v>1800</v>
       </c>
       <c r="F343" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7649,7 +7600,7 @@
         <v>1800</v>
       </c>
       <c r="F344" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7669,7 +7620,7 @@
         <v>1800</v>
       </c>
       <c r="F345" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7689,7 +7640,7 @@
         <v>1800</v>
       </c>
       <c r="F346" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
